--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:35:25+00:00</t>
+    <t>2024-02-12T18:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T18:00:18+00:00</t>
+    <t>2024-02-15T16:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:45+00:00</t>
+    <t>2024-02-15T16:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:54:08+00:00</t>
+    <t>2024-02-16T09:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T09:13:22+00:00</t>
+    <t>2024-02-16T15:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -312,7 +312,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>Nom du partie prenante / Name of associated party</t>
+    <t>Nom de la partie prenante / Name of associated party</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -457,7 +457,7 @@
     <t>party</t>
   </si>
   <si>
-    <t>Structured outcome definition / Individual or organization associated with study (use practitionerRole to specify their organisation)</t>
+    <t>Structure de la partie prenante / Structured outcome definition Individual or organization associated with study (use practitionerRole to specify their organisation)</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
